--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail3 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>4.960793242265854e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.41393864666739</v>
+        <v>3.362048378357567e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.517181093760382</v>
+        <v>3.895465568466845e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.362048378357567e-07</v>
+        <v>0.09230457017556706</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.895465568466845e-06</v>
+        <v>0.370707834458853</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09230457017556706</v>
+        <v>0.1456999024787655</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.370707834458853</v>
+        <v>1.905967053167512</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1456999024787655</v>
+        <v>2.453207501512019</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.925895442659499</v>
+        <v>4.744470066300126</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.453207501512019</v>
+        <v>2.052639916560141e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.744470066300126</v>
+        <v>1008652872.054966</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.052639916560141e-16</v>
+        <v>1.18539332769383e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1008652872.054966</v>
+        <v>208.8316063361649</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.18539332769383e-07</v>
+        <v>0.0001779376036806607</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>208.8316063361649</v>
+        <v>11.35535312772925</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001779376036806607</v>
+        <v>1.124232879082956</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.35535312772925</v>
+        <v>0.02294399431487941</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.124232879082956</v>
+        <v>2.715598856849133</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02294399431487941</v>
+        <v>0.9555939343663513</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.715598856849133</v>
+        <v>1.343742771170087</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9555939343663513</v>
+        <v>33</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.343742771170087</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.6736094597679467</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>3.881571493318232e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.46339411262014</v>
+        <v>2.496075662677694e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.880832865884855</v>
+        <v>3.899349130477434e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.496075662677694e-07</v>
+        <v>0.0836894115018439</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.899349130477434e-06</v>
+        <v>0.3853060486819929</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0836894115018439</v>
+        <v>0.1552037316020333</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3853060486819929</v>
+        <v>1.906573764771726</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1552037316020333</v>
+        <v>2.400419331155293</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.920742517483747</v>
+        <v>4.695075173530377</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.400419331155293</v>
+        <v>2.428196731317751e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.695075173530377</v>
+        <v>908457101.9890682</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.428196731317751e-16</v>
+        <v>1.323048898141448e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>908457101.9890682</v>
+        <v>200.3976936579207</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.323048898141448e-07</v>
+        <v>0.0001644973521982702</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>200.3976936579207</v>
+        <v>10.03119720127811</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001644973521982702</v>
+        <v>1.210181533447201</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.03119720127811</v>
+        <v>0.01655253245952788</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.210181533447201</v>
+        <v>2.868378721039928</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01655253245952788</v>
+        <v>0.9570181854456831</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.868378721039928</v>
+        <v>1.308919511643968</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9570181854456831</v>
+        <v>33</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.308919511643968</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5256900440910695</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>3.251636936203308e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5922664996893108</v>
+        <v>1.781931822467283e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.04201225483465398</v>
+        <v>3.902029279820548e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.781931822467283e-07</v>
+        <v>0.06608490894705171</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.902029279820548e-06</v>
+        <v>0.3701117410683916</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06608490894705171</v>
+        <v>0.1410782957279517</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3701117410683916</v>
+        <v>1.909930986125327</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1410782957279517</v>
+        <v>2.400966660478706</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.922275900287733</v>
+        <v>4.495091739308286</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.400966660478706</v>
+        <v>2.649060344271469e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.495091739308286</v>
+        <v>844173651.1878803</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.649060344271469e-16</v>
+        <v>1.427226915528513e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>844173651.1878803</v>
+        <v>188.7797630337402</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.427226915528513e-07</v>
+        <v>0.0001564359885612435</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>188.7797630337402</v>
+        <v>8.655350062757691</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001564359885612435</v>
+        <v>1.330178654596154</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.655350062757691</v>
+        <v>0.01171941533458287</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.330178654596154</v>
+        <v>2.982073529580171</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01171941533458287</v>
+        <v>0.9577637736550937</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.982073529580171</v>
+        <v>1.301190806484129</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9577637736550937</v>
+        <v>33</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.301190806484129</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4411346523984508</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>2.983578887310483e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.2888056174507697</v>
+        <v>1.163617755176178e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.092410929463827</v>
+        <v>3.903682821482185e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.163617755176178e-07</v>
+        <v>0.03996666837746857</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.903682821482185e-06</v>
+        <v>0.3079674633952665</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03996666837746857</v>
+        <v>0.0962095678411628</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3079674633952665</v>
+        <v>1.914592147418472</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0962095678411628</v>
+        <v>2.451225390346536</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.922906830248143</v>
+        <v>4.456394712805023</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.451225390346536</v>
+        <v>2.695266230502689e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.456394712805023</v>
+        <v>869994206.1062329</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.695266230502689e-16</v>
+        <v>1.392549762020781e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>869994206.1062329</v>
+        <v>204.0019837967951</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.392549762020781e-07</v>
+        <v>0.0001523220972887286</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>204.0019837967951</v>
+        <v>8.750742929210267</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001523220972887286</v>
+        <v>1.287534053209542</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.750742929210267</v>
+        <v>0.01166414103711181</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.287534053209542</v>
+        <v>2.973156546910324</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01166414103711181</v>
+        <v>0.9586020266749153</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.973156546910324</v>
+        <v>1.305143359154955</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9586020266749153</v>
+        <v>53</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.305143359154955</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4315147857865982</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>2.923403208687838e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3164787321768906</v>
+        <v>9.757941130188983e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.037874048289696</v>
+        <v>3.90448736494982e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.757941130188983e-08</v>
+        <v>0.01632575828753138</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.90448736494982e-06</v>
+        <v>0.2359195946065328</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01632575828753138</v>
+        <v>0.05581066405833105</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2359195946065328</v>
+        <v>1.913404798154246</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05581066405833105</v>
+        <v>2.427240846932793</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.915216371759466</v>
+        <v>4.419219544944974</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.427240846932793</v>
+        <v>2.740802963790012e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.419219544944974</v>
+        <v>856002213.2051394</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.740802963790012e-16</v>
+        <v>1.417078095015681e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>856002213.2051394</v>
+        <v>200.8295385411223</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.417078095015681e-07</v>
+        <v>0.0001567614645967056</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>200.8295385411223</v>
+        <v>9.903339394189127</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001567614645967056</v>
+        <v>1.20057257110903</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.903339394189127</v>
+        <v>0.01537455796207125</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.20057257110903</v>
+        <v>2.860729913121839</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01537455796207125</v>
+        <v>0.9582616566731762</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.860729913121839</v>
+        <v>1.318076451157477</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9582616566731762</v>
+        <v>54</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.318076451157477</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4621773285022326</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>2.922949755978987e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3421701726084206</v>
+        <v>9.757941130188983e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.025102877240505</v>
+        <v>3.904751696289608e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.757941130188983e-08</v>
+        <v>0.003999389507927342</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.904751696289608e-06</v>
+        <v>0.2003107335163212</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.003999389507927342</v>
+        <v>0.04010503556361497</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2003107335163212</v>
+        <v>1.915915491418578</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04010503556361497</v>
+        <v>2.362133782582362</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.917311443369482</v>
+        <v>4.117720308517203</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.362133782582362</v>
+        <v>3.156859706643063e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.117720308517203</v>
+        <v>744441972.4494857</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.156859706643063e-16</v>
+        <v>1.62888701011528e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>744441972.4494857</v>
+        <v>174.9512235821867</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.62888701011528e-07</v>
+        <v>0.0001727612087992062</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>174.9512235821867</v>
+        <v>10.53864191319418</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001727612087992062</v>
+        <v>1.19909619579648</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.53864191319418</v>
+        <v>0.0191873735330184</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.19909619579648</v>
+        <v>2.801726326371084</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0191873735330184</v>
+        <v>0.9579387701056773</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.801726326371084</v>
+        <v>1.325855143290964</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9579387701056773</v>
+        <v>54</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.325855143290964</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4764594652189901</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>2.92725106781862e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3464354911439873</v>
+        <v>9.757941130188983e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.030950767247067</v>
+        <v>3.904830882969657e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.757941130188983e-08</v>
+        <v>0.00323794892713408</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.904830882969657e-06</v>
+        <v>0.1977261815681077</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.00323794892713408</v>
+        <v>0.03909273624451708</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1977261815681077</v>
+        <v>1.918458284810227</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03909273624451708</v>
+        <v>2.345161966152504</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.92322330375141</v>
+        <v>3.869585905354113</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.345161966152504</v>
+        <v>3.574703171071179e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.869585905354113</v>
+        <v>660387154.65974</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.574703171071179e-16</v>
+        <v>1.834152415504768e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>660387154.65974</v>
+        <v>155.8968068272951</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.834152415504768e-07</v>
+        <v>0.0001952126973726531</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>155.8968068272951</v>
+        <v>9.823947430929607</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001952126973726531</v>
+        <v>1.359976240171647</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.823947430929607</v>
+        <v>0.01883996632084308</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.359976240171647</v>
+        <v>2.785908629481336</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01883996632084308</v>
+        <v>0.9569674669385132</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.785908629481336</v>
+        <v>1.344202372924083</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9569674669385132</v>
+        <v>54</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.344202372924083</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4218086314056605</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>2.94426943516133e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.3448274215713329</v>
+        <v>9.757941130188983e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.047988289513993</v>
+        <v>3.905025587976336e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>9.757941130188983e-08</v>
+        <v>0.01132310144438129</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.905025587976336e-06</v>
+        <v>0.2063663712848812</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01132310144438129</v>
+        <v>0.04269199104201011</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2063663712848812</v>
+        <v>1.921226506887812</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04269199104201011</v>
+        <v>2.151150425991494</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.926731922733871</v>
+        <v>4.198322597611758</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.151150425991494</v>
+        <v>4.771244759104296e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.198322597611758</v>
+        <v>497223110.8675561</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.771244759104296e-16</v>
+        <v>2.440242668862371e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>497223110.8675561</v>
+        <v>117.9598763664987</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.440242668862371e-07</v>
+        <v>0.0001900344500735654</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>117.9598763664987</v>
+        <v>9.586202851811839</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001900344500735654</v>
+        <v>1.388468658912801</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.586202851811839</v>
+        <v>0.0174632699713888</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.388468658912801</v>
+        <v>2.819700407018731</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0174632699713888</v>
+        <v>0.9555753932600155</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.819700407018731</v>
+        <v>1.331934640964836</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9555753932600155</v>
+        <v>45</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.331934640964836</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3770881447507051</v>
       </c>
     </row>
@@ -5041,72 +4981,66 @@
         <v>3.002654030316257e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.3092608158693641</v>
+        <v>1.108448100409519e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.055599600411285</v>
+        <v>3.905561895474799e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.108448100409519e-07</v>
+        <v>0.02569967140204884</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.905561895474799e-06</v>
+        <v>0.2194545961410775</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02569967140204884</v>
+        <v>0.04877263055030864</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2194545961410775</v>
+        <v>1.919199724477145</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04877263055030864</v>
+        <v>1.885869942217005</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.920966070033495</v>
+        <v>4.411097060774863</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.885869942217005</v>
+        <v>7.287039900614691e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.411097060774863</v>
+        <v>322242378.1191155</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.287039900614691e-16</v>
+        <v>3.743769760125586e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>322242378.1191155</v>
+        <v>75.66873182002988</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.743769760125586e-07</v>
+        <v>0.0001698194447581736</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>75.66873182002988</v>
+        <v>10.42401473768826</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001698194447581736</v>
+        <v>1.17061804767626</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.42401473768826</v>
+        <v>0.0184525950051538</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.17061804767626</v>
+        <v>2.811522462174056</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0184525950051538</v>
+        <v>0.9552695811997516</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.811522462174056</v>
+        <v>1.349893807616005</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9552695811997516</v>
+        <v>45</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.349893807616005</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.38218001760575</v>
       </c>
     </row>
@@ -5121,72 +5055,66 @@
         <v>3.14182538368685e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1606222777278424</v>
+        <v>1.381375075117352e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8625512605338237</v>
+        <v>3.906611678831742e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.381375075117352e-07</v>
+        <v>0.04250702546054809</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.906611678831742e-06</v>
+        <v>0.2337955962009667</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.04250702546054809</v>
+        <v>0.0564160722067322</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2337955962009667</v>
+        <v>1.86108825116982</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0564160722067322</v>
+        <v>1.926998188535741</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.839542678658046</v>
+        <v>4.95281957506642</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.926998188535741</v>
+        <v>7.85120751746894e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.95281957506642</v>
+        <v>294493005.3476388</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.85120751746894e-16</v>
+        <v>4.053072955538438e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>294493005.3476388</v>
+        <v>68.0904845376901</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.053072955538438e-07</v>
+        <v>0.0001674342802696169</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>68.0904845376901</v>
+        <v>11.89554412061156</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001674342802696169</v>
+        <v>1.034900291427175</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.89554412061156</v>
+        <v>0.02369261535975557</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.034900291427175</v>
+        <v>2.659499101097983</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02369261535975557</v>
+        <v>0.9529155702305677</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.659499101097983</v>
+        <v>1.481636745530901</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9529155702305677</v>
+        <v>46</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.481636745530901</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.4125781830555207</v>
       </c>
     </row>
@@ -5201,72 +5129,66 @@
         <v>3.380905760268788e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1333156862738797</v>
+        <v>1.609952651854061e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2677766272834901</v>
+        <v>3.908196822400203e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.609952651854061e-07</v>
+        <v>0.05331790520384127</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.908196822400203e-06</v>
+        <v>0.2307424513296827</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.05331790520384127</v>
+        <v>0.05606737277809629</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2307424513296827</v>
+        <v>1.827799859235042</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.05606737277809629</v>
+        <v>1.757520039086117</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.78880098474163</v>
+        <v>5.397701759803939</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.757520039086117</v>
+        <v>1.714321096274486e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.397701759803939</v>
+        <v>134856372.8526859</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.714321096274486e-15</v>
+        <v>8.807635430887777e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>134856372.8526859</v>
+        <v>31.17705712078427</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>8.807635430887777e-07</v>
+        <v>0.0002069150086628011</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>31.17705712078427</v>
+        <v>10.02176322506675</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0002069150086628011</v>
+        <v>1.530475575349431</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.02176322506675</v>
+        <v>0.02078166162714815</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.530475575349431</v>
+        <v>2.849476224750747</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02078166162714815</v>
+        <v>0.9516928155878462</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.849476224750747</v>
+        <v>1.668142010730497</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9516928155878462</v>
+        <v>29</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.668142010730497</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3058748077692316</v>
       </c>
     </row>
@@ -5281,72 +5203,66 @@
         <v>3.67520636707128e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4265712421303874</v>
+        <v>1.71641329258714e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.3283573025546405</v>
+        <v>3.910134184892412e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.71641329258714e-07</v>
+        <v>0.05522590823041886</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.910134184892412e-06</v>
+        <v>0.2141178833372401</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.05522590823041886</v>
+        <v>0.04889566808463278</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2141178833372401</v>
+        <v>1.819953552487975</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04889566808463278</v>
+        <v>1.712233720394049</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.781128926175794</v>
+        <v>4.216073092387848</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.712233720394049</v>
+        <v>2.93069970296e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.216073092387848</v>
+        <v>79197539.76970504</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.93069970296e-15</v>
+        <v>1.49676504087432e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>79197539.76970504</v>
+        <v>18.38208210743652</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.49676504087432e-06</v>
+        <v>0.0002162409807299642</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>18.38208210743652</v>
+        <v>9.295758686899283</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0002162409807299642</v>
+        <v>1.792653121266674</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.295758686899283</v>
+        <v>0.01868562740313334</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.792653121266674</v>
+        <v>2.850433140981544</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01868562740313334</v>
+        <v>0.9529707200094468</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.850433140981544</v>
+        <v>1.655474003333913</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9529707200094468</v>
+        <v>29</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.655474003333913</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.209197889678486</v>
       </c>
     </row>
@@ -5361,72 +5277,66 @@
         <v>3.959794772261101e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.599741077398967</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.5368572169571593</v>
+        <v>3.912179486962345e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.05124642732159922</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.912179486962345e-06</v>
+        <v>0.1988683182120283</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.05124642732159922</v>
+        <v>0.04217445358983191</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1988683182120283</v>
+        <v>1.815249648293281</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04217445358983191</v>
+        <v>1.694861816519951</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.770900217754475</v>
+        <v>3.934945059036605</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.694861816519951</v>
+        <v>3.364420242232253e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.934945059036605</v>
+        <v>70946988.28424212</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.364420242232253e-15</v>
+        <v>1.672516507306836e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>70946988.28424212</v>
+        <v>16.93472567200877</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.672516507306836e-06</v>
+        <v>0.0001638793004550608</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>16.93472567200877</v>
+        <v>9.470482420139646</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001638793004550608</v>
+        <v>1.34457593832354</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.470482420139646</v>
+        <v>0.01469834056562446</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.34457593832354</v>
+        <v>2.864265399943962</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01469834056562446</v>
+        <v>0.9530170202306755</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.864265399943962</v>
+        <v>1.652485966590892</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9530170202306755</v>
+        <v>29</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.652485966590892</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1898884324157067</v>
       </c>
     </row>
@@ -5441,72 +5351,66 @@
         <v>4.200410896259991e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6608785612680669</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.4386317177240562</v>
+        <v>3.914142644621105e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.04460841801393169</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.914142644621105e-06</v>
+        <v>0.1891405267376975</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.04460841801393169</v>
+        <v>0.03776084988603294</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1891405267376975</v>
+        <v>1.818718649443932</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03776084988603294</v>
+        <v>1.678835145980105</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.769015399726399</v>
+        <v>3.952540163828688</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.678835145980105</v>
+        <v>3.334532846764582e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.952540163828688</v>
+        <v>73690411.41525961</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.334532846764582e-15</v>
+        <v>1.620040604687786e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>73690411.41525961</v>
+        <v>18.10743613837924</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.620040604687786e-06</v>
+        <v>0.0001582404155309752</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>18.10743613837924</v>
+        <v>10.26700522399133</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001582404155309752</v>
+        <v>1.120443244466227</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.26700522399133</v>
+        <v>0.01668034314738046</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.120443244466227</v>
+        <v>2.634049221105949</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01668034314738046</v>
+        <v>0.9535443303009268</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.634049221105949</v>
+        <v>1.671509095882921</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9535443303009268</v>
+        <v>29</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.671509095882921</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1866763424453655</v>
       </c>
     </row>
@@ -5521,72 +5425,66 @@
         <v>4.389522504978068e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.655790379525566</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.2161321438337844</v>
+        <v>3.915889602109663e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.03659920973256359</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.915889602109663e-06</v>
+        <v>0.1836442083688811</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03659920973256359</v>
+        <v>0.03505924466105392</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1836442083688811</v>
+        <v>1.828231319836494</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03505924466105392</v>
+        <v>1.795011875070069</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.777798727981685</v>
+        <v>3.984841376237523</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.795011875070069</v>
+        <v>3.280692356752126e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.984841376237523</v>
+        <v>75574049.31817491</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.280692356752126e-15</v>
+        <v>1.583972990649916e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>75574049.31817491</v>
+        <v>18.73746748345773</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.583972990649916e-06</v>
+        <v>0.0001625507803952315</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>18.73746748345773</v>
+        <v>10.27036079362513</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001625507803952315</v>
+        <v>1.137939307352408</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.27036079362513</v>
+        <v>0.01714590684194837</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.137939307352408</v>
+        <v>2.544014135585278</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01714590684194837</v>
+        <v>0.9558139340423558</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.544014135585278</v>
+        <v>1.65678091594171</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9558139340423558</v>
+        <v>22</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.65678091594171</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1810502133073279</v>
       </c>
     </row>
@@ -5601,72 +5499,66 @@
         <v>4.530096483927215e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6205265487803715</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.01768933425070385</v>
+        <v>3.917345139854312e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.02877103099303638</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.917345139854312e-06</v>
+        <v>0.1806684185695158</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.02877103099303638</v>
+        <v>0.03346362017047345</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1806684185695158</v>
+        <v>1.830071477859803</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03346362017047345</v>
+        <v>1.853492046247249</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.778383454291556</v>
+        <v>3.975093527380892</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.853492046247249</v>
+        <v>3.296802118105359e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.975093527380892</v>
+        <v>75322297.49387573</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.296802118105359e-15</v>
+        <v>1.588624795299794e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>75322297.49387573</v>
+        <v>18.70423703095699</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.588624795299794e-06</v>
+        <v>0.0001618646428671289</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>18.70423703095699</v>
+        <v>9.049917343713911</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001618646428671289</v>
+        <v>1.25015317475707</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.049917343713911</v>
+        <v>0.01325687675127376</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.25015317475707</v>
+        <v>2.745559388727933</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01325687675127376</v>
+        <v>0.954852971456875</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.745559388727933</v>
+        <v>1.64960249279339</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.954852971456875</v>
+        <v>29</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.64960249279339</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.170088407752907</v>
       </c>
     </row>
@@ -5681,72 +5573,66 @@
         <v>4.631682606136655e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.5780564914849211</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.2137989163368341</v>
+        <v>3.918502064018616e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.02187771247217788</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.918502064018616e-06</v>
+        <v>0.1783819186108288</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.02187771247217788</v>
+        <v>0.03229449206484096</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1783819186108288</v>
+        <v>1.831782265254477</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03229449206484096</v>
+        <v>1.823329085570822</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.779165139286766</v>
+        <v>3.940698707037795</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.823329085570822</v>
+        <v>3.354602918165301e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.940698707037795</v>
+        <v>70839399.02090746</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.354602918165301e-15</v>
+        <v>1.683930299519744e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>70839399.02090746</v>
+        <v>16.83413697778877</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.683930299519744e-06</v>
+        <v>0.0001831331767445622</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>16.83413697778877</v>
+        <v>8.528659888752982</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001831331767445622</v>
+        <v>1.642400694218886</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.528659888752982</v>
+        <v>0.01332074824344458</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.642400694218886</v>
+        <v>2.821852052990405</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01332074824344458</v>
+        <v>0.9535912906369539</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.821852052990405</v>
+        <v>1.675027448264778</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9535912906369539</v>
+        <v>29</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.675027448264778</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1590897538886161</v>
       </c>
     </row>
@@ -5761,72 +5647,66 @@
         <v>4.704535184659868e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5403089553016922</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.3619952654665406</v>
+        <v>3.919381415272331e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.01602301490012387</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.919381415272331e-06</v>
+        <v>0.1763419045420015</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.01602301490012387</v>
+        <v>0.03135047548899692</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1763419045420015</v>
+        <v>1.827825251099773</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03135047548899692</v>
+        <v>1.813340103723155</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.775974784247654</v>
+        <v>3.914247775740858</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.813340103723155</v>
+        <v>3.400094254163096e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.914247775740858</v>
+        <v>68963595.05420583</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.400094254163096e-15</v>
+        <v>1.724750677585732e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>68963595.05420583</v>
+        <v>16.17077157619522</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.724750677585732e-06</v>
+        <v>0.0001744334839643366</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>16.17077157619522</v>
+        <v>9.4595279937221</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001744334839643366</v>
+        <v>1.384371149571676</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.4595279937221</v>
+        <v>0.01560877385881017</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.384371149571676</v>
+        <v>2.802176493127038</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01560877385881017</v>
+        <v>0.9537324576848433</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.802176493127038</v>
+        <v>1.679638795835784</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9537324576848433</v>
+        <v>29</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.679638795835784</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1657561452505977</v>
       </c>
     </row>
@@ -5841,72 +5721,66 @@
         <v>4.756615135732617e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5101756482372476</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.4692536499860984</v>
+        <v>3.920035898945174e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.01199259059136067</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.920035898945174e-06</v>
+        <v>0.1748898501951924</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.01199259059136067</v>
+        <v>0.03072934012443602</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1748898501951924</v>
+        <v>1.821762303799773</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03072934012443602</v>
+        <v>1.769465844772319</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.772788031940482</v>
+        <v>3.869720130446948</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.769465844772319</v>
+        <v>3.478792057272941e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.869720130446948</v>
+        <v>65233556.63396654</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.478792057272941e-15</v>
+        <v>1.806954686302248e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>65233556.63396654</v>
+        <v>14.80371055077849</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.806954686302248e-06</v>
+        <v>0.0001642444587354609</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>14.80371055077849</v>
+        <v>10.77847273301385</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001642444587354609</v>
+        <v>1.098644347456287</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.77847273301385</v>
+        <v>0.01908117792041414</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.098644347456287</v>
+        <v>2.593182750275089</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01908117792041414</v>
+        <v>0.9538604562612971</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.593182750275089</v>
+        <v>1.674339907932329</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9538604562612971</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.674339907932329</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1774117020038516</v>
       </c>
     </row>
@@ -5921,72 +5795,66 @@
         <v>4.79662773645303e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.4856168160363216</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.5508298682991746</v>
+        <v>3.920554759673636e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.01006416114901396</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.920554759673636e-06</v>
+        <v>0.1735332383183802</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01006416114901396</v>
+        <v>0.03021494416929329</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1735332383183802</v>
+        <v>1.821790078521091</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03021494416929329</v>
+        <v>1.698045450682724</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.773388211487898</v>
+        <v>3.807884666823149</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.698045450682724</v>
+        <v>3.592692201059016e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.807884666823149</v>
+        <v>62719868.518921</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.592692201059016e-15</v>
+        <v>1.879690622224892e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>62719868.518921</v>
+        <v>14.13286757805639</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.879690622224892e-06</v>
+        <v>0.0001654451290270805</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>14.13286757805639</v>
+        <v>10.56236357315559</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001654451290270805</v>
+        <v>1.106581520823529</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.56236357315559</v>
+        <v>0.01845764166450924</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.106581520823529</v>
+        <v>2.534278222511176</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01845764166450924</v>
+        <v>0.9549203898729273</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.534278222511176</v>
+        <v>1.683376125751139</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9549203898729273</v>
+        <v>8</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.683376125751139</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1749884798007787</v>
       </c>
     </row>
@@ -6001,72 +5869,66 @@
         <v>4.833442050710516e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4638584256550064</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.6222407782008035</v>
+        <v>3.921028654927557e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.009850926188738809</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.921028654927557e-06</v>
+        <v>0.1722180174635195</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.009850926188738809</v>
+        <v>0.02975545722219829</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1722180174635195</v>
+        <v>1.826351357761329</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02975545722219829</v>
+        <v>1.673445101340587</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.774350713205441</v>
+        <v>3.774664992452113</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.673445101340587</v>
+        <v>3.656206837838044e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.774664992452113</v>
+        <v>63506880.84704959</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.656206837838044e-15</v>
+        <v>1.8719025798095e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>63506880.84704959</v>
+        <v>14.7459352355836</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.8719025798095e-06</v>
+        <v>0.0001635640813357741</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>14.7459352355836</v>
+        <v>9.468561126069252</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001635640813357741</v>
+        <v>1.191882889588113</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.468561126069252</v>
+        <v>0.01466411686762704</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.191882889588113</v>
+        <v>2.686401833805715</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01466411686762704</v>
+        <v>0.9554752309143302</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.686401833805715</v>
+        <v>1.67386537383623</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9554752309143302</v>
+        <v>8</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.67386537383623</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1700970996854897</v>
       </c>
     </row>
@@ -6081,72 +5943,66 @@
         <v>4.873469920924498e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4440017379265974</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.692179971363676</v>
+        <v>3.921512985635231e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.01006947927613505</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.921512985635231e-06</v>
+        <v>0.1709221269094817</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.01006947927613505</v>
+        <v>0.02931506686234482</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1709221269094817</v>
+        <v>1.801992682632455</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02931506686234482</v>
+        <v>1.659383440483639</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.746927747490776</v>
+        <v>3.821673027129935</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.659383440483639</v>
+        <v>3.566814544667996e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.821673027129935</v>
+        <v>64805864.86099287</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.566814544667996e-15</v>
+        <v>1.824547723893326e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>64805864.86099287</v>
+        <v>14.97990815407432</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.824547723893326e-06</v>
+        <v>0.0001790259460627691</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>14.97990815407432</v>
+        <v>8.780438925034638</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001790259460627691</v>
+        <v>1.47266875436454</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.780438925034638</v>
+        <v>0.01380220362166121</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.47266875436454</v>
+        <v>2.758557723465207</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01380220362166121</v>
+        <v>0.9548357833238801</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.758557723465207</v>
+        <v>1.672062904230959</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9548357833238801</v>
+        <v>11</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.672062904230959</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1680697927069409</v>
       </c>
     </row>
@@ -6161,72 +6017,66 @@
         <v>4.916723067925351e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4264275002194578</v>
+        <v>1.725810090812473e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7596607805109081</v>
+        <v>3.922005749246325e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.725810090812473e-07</v>
+        <v>0.010086516296589</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.922005749246325e-06</v>
+        <v>0.1694417789632645</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.010086516296589</v>
+        <v>0.02881218929114799</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1694417789632645</v>
+        <v>1.808542960725294</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02881218929114799</v>
+        <v>1.628880579406011</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.754941963760074</v>
+        <v>3.942927603013354</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.628880579406011</v>
+        <v>3.350811345839306e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.942927603013354</v>
+        <v>70726192.49733773</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.350811345839306e-15</v>
+        <v>1.679083468748161e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>70726192.49733773</v>
+        <v>16.76140943185798</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.679083468748161e-06</v>
+        <v>0.0002046512286582659</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>16.76140943185798</v>
+        <v>9.69021089035834</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0002046512286582659</v>
+        <v>1.471451408184037</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.69021089035834</v>
+        <v>0.01921678866117815</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.471451408184037</v>
+        <v>2.683266293388575</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01921678866117815</v>
+        <v>0.9555597466006589</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.683266293388575</v>
+        <v>1.673612315417214</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9555597466006589</v>
+        <v>11</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.673612315417214</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1843237327427038</v>
       </c>
     </row>
@@ -6603,7 +6453,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.308846746224517</v>
+        <v>1.315742938591467</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.013885432099487</v>
@@ -6692,7 +6542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342275191311533</v>
+        <v>1.345334433671251</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.991983807239643</v>
@@ -6781,7 +6631,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.352055520900981</v>
+        <v>1.352807304383489</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.026076238173612</v>
@@ -6870,7 +6720,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.364530912359764</v>
+        <v>1.361007371976791</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.988556631590333</v>
@@ -6959,7 +6809,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.353323880618483</v>
+        <v>1.349198698449226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.041492633785714</v>
@@ -7048,7 +6898,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.363508614617461</v>
+        <v>1.359808809001575</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.144050070200268</v>
@@ -7137,7 +6987,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.414691389216488</v>
+        <v>1.405306858473299</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.051091764939901</v>
@@ -7226,7 +7076,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.414305100025885</v>
+        <v>1.402840069470434</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.048242264010823</v>
@@ -7315,7 +7165,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.374924190230983</v>
+        <v>1.365567140575075</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.06737915460737</v>
@@ -7404,7 +7254,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.378200488797305</v>
+        <v>1.366181054944682</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.056755297472627</v>
@@ -7493,7 +7343,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.376522707736391</v>
+        <v>1.361929773534433</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.039261182506777</v>
@@ -7582,7 +7432,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.413057854617732</v>
+        <v>1.399304449098474</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.029195408379258</v>
@@ -7671,7 +7521,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.42061051715123</v>
+        <v>1.403113047229025</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.090560274639945</v>
@@ -7760,7 +7610,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.36252300733811</v>
+        <v>1.35133326711426</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.077207985254768</v>
@@ -7849,7 +7699,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.350949483782542</v>
+        <v>1.338260932483605</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.108963599315296</v>
@@ -7938,7 +7788,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.350437289606596</v>
+        <v>1.325732518597676</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.121928193531186</v>
@@ -8027,7 +7877,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.327742515046604</v>
+        <v>1.311312229416133</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.992995763719519</v>
@@ -8116,7 +7966,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.356488574082491</v>
+        <v>1.337426797349935</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.110287969194955</v>
@@ -8205,7 +8055,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.352854212416267</v>
+        <v>1.335400444235288</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.108913168071346</v>
@@ -8294,7 +8144,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.393673543063298</v>
+        <v>1.37148643576913</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.037023973923997</v>
@@ -8383,7 +8233,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.38679216671339</v>
+        <v>1.36382589375164</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.039261691488758</v>
@@ -8472,7 +8322,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.377215314117435</v>
+        <v>1.354654270663033</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.030338858978903</v>
@@ -8561,7 +8411,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.346181407194786</v>
+        <v>1.330706904219611</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.13629906296506</v>
@@ -8650,7 +8500,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.374883381249212</v>
+        <v>1.355880244904943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.100060361142595</v>
@@ -8739,7 +8589,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.372855430772155</v>
+        <v>1.354953912197422</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.050517439520023</v>
@@ -8828,7 +8678,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.375645188871028</v>
+        <v>1.361095979207146</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.068284418197924</v>
@@ -8917,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.350774584457217</v>
+        <v>1.338600234995154</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.110225208893855</v>
@@ -9006,7 +8856,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.361273366730487</v>
+        <v>1.348421763757314</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.821704136627017</v>
@@ -9095,7 +8945,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.399518904568327</v>
+        <v>1.383229669221143</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.976576618756807</v>
@@ -9184,7 +9034,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.413628540012062</v>
+        <v>1.39806570759691</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.033766224815658</v>
@@ -9273,7 +9123,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.441926164474004</v>
+        <v>1.432945264024209</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.032162277005329</v>
@@ -9362,7 +9212,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.399718934623264</v>
+        <v>1.387959799498595</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.030822333303676</v>
@@ -9451,7 +9301,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.398688823822894</v>
+        <v>1.389403332445843</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.995127645611643</v>
@@ -9540,7 +9390,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.403010478503169</v>
+        <v>1.393456967459009</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.069505556654148</v>
@@ -9629,7 +9479,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.362474482060589</v>
+        <v>1.352160923331533</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.051052819536814</v>
@@ -9718,7 +9568,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.36208200021261</v>
+        <v>1.353196115974851</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.038299356141315</v>
@@ -9807,7 +9657,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.386314003277497</v>
+        <v>1.371124599640243</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.091442473819499</v>
@@ -9896,7 +9746,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.39577265966933</v>
+        <v>1.38110965361279</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.011056584870031</v>
@@ -9985,7 +9835,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.403766069997775</v>
+        <v>1.388410767190596</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.054755440212862</v>
@@ -10074,7 +9924,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.403582956705537</v>
+        <v>1.390086517560793</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.012588163297174</v>
@@ -10163,7 +10013,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.400952487368686</v>
+        <v>1.386464267258177</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.02614390958856</v>
@@ -10252,7 +10102,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.393749008666457</v>
+        <v>1.378486002155654</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.988460780065419</v>
@@ -10341,7 +10191,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.400487387740978</v>
+        <v>1.380763776089871</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.048528332041454</v>
@@ -10430,7 +10280,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.397055892167648</v>
+        <v>1.376689921541021</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.018367233536769</v>
@@ -10519,7 +10369,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.398445526714733</v>
+        <v>1.380155837081971</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.039523281868088</v>
@@ -10608,7 +10458,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.399593057760544</v>
+        <v>1.382858063812535</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.147218698208405</v>
@@ -10697,7 +10547,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.447172772505362</v>
+        <v>1.428434153323263</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.158034829668475</v>
@@ -10786,7 +10636,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.405543136518076</v>
+        <v>1.390934758800145</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.048507178858499</v>
@@ -10875,7 +10725,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.403071475259637</v>
+        <v>1.38879859042954</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.066554582390264</v>
@@ -10964,7 +10814,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.458596588361707</v>
+        <v>1.431968457461098</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.95024825432201</v>
@@ -11053,7 +10903,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.463337369004156</v>
+        <v>1.438735485814103</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.040025654978273</v>
@@ -11142,7 +10992,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.436608454364815</v>
+        <v>1.416719499452891</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.04397761753808</v>
@@ -11231,7 +11081,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.441961749420167</v>
+        <v>1.420064084162941</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.073456823757442</v>
@@ -11320,7 +11170,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.440925854414799</v>
+        <v>1.419406150480023</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.107531719637314</v>
@@ -11409,7 +11259,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.403049747001078</v>
+        <v>1.38377043057462</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.132484391714945</v>
@@ -11498,7 +11348,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.405404004479795</v>
+        <v>1.387412807121816</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.136985837132735</v>
@@ -11587,7 +11437,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.450221498384602</v>
+        <v>1.42517604934216</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.065632276671405</v>
@@ -11676,7 +11526,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.394764949906806</v>
+        <v>1.384770457896936</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.039089617278406</v>
@@ -11765,7 +11615,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.399356981390936</v>
+        <v>1.388034091568574</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.085878842904525</v>
@@ -11854,7 +11704,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.395254837364512</v>
+        <v>1.383149186430692</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.10624002995154</v>
@@ -11943,7 +11793,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.39748542808341</v>
+        <v>1.38393876868095</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.012360491787883</v>
@@ -12032,7 +11882,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.39904385672991</v>
+        <v>1.385640568345952</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.145117128458502</v>
@@ -12121,7 +11971,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.393626148919091</v>
+        <v>1.380788525186547</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.044844111491499</v>
@@ -12210,7 +12060,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.385319714956344</v>
+        <v>1.375226772253489</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.018236866625654</v>
@@ -12299,7 +12149,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.382082360434501</v>
+        <v>1.377864788059621</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.031862966102103</v>
@@ -12388,7 +12238,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.389163102766809</v>
+        <v>1.379340065910954</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.935144265447509</v>
@@ -12477,7 +12327,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.369037439084053</v>
+        <v>1.367693419648348</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.00825884791896</v>
@@ -12566,7 +12416,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.364980301306016</v>
+        <v>1.361152058466306</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.999023570577663</v>
@@ -12852,7 +12702,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57424910063095</v>
+        <v>1.561400778738886</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.321132018206479</v>
@@ -12941,7 +12791,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.58282695200337</v>
+        <v>1.569632524012015</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.29295645087831</v>
@@ -13030,7 +12880,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.627001457881975</v>
+        <v>1.611308175838315</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.826925368157328</v>
@@ -13119,7 +12969,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.626145180801515</v>
+        <v>1.61494259372008</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.898288455248251</v>
@@ -13208,7 +13058,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.641391259007953</v>
+        <v>1.636415924371796</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.069885167833478</v>
@@ -13297,7 +13147,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.641437192661204</v>
+        <v>1.640236647154323</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.165350535149564</v>
@@ -13386,7 +13236,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.646707715057883</v>
+        <v>1.641105400098297</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.948595239214003</v>
@@ -13475,7 +13325,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.654806622485582</v>
+        <v>1.643739015699678</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.016443022771553</v>
@@ -13564,7 +13414,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639728744853241</v>
+        <v>1.62710123336988</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.937213426577963</v>
@@ -13653,7 +13503,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.650152931664019</v>
+        <v>1.634039354778327</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.997953764399191</v>
@@ -13742,7 +13592,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.655062980301331</v>
+        <v>1.633772892004944</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.902652764199456</v>
@@ -13831,7 +13681,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.654866315726361</v>
+        <v>1.636094548682963</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.950092665506531</v>
@@ -13920,7 +13770,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647710026120019</v>
+        <v>1.627371173078485</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.078018551296091</v>
@@ -14009,7 +13859,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646343083992178</v>
+        <v>1.625624689781864</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.057966066933863</v>
@@ -14098,7 +13948,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640447518687799</v>
+        <v>1.618734884128623</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.215975600222138</v>
@@ -14187,7 +14037,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627165498764879</v>
+        <v>1.596822722824849</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.233603064648392</v>
@@ -14276,7 +14126,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.62391779267602</v>
+        <v>1.594503392371573</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.240805992577954</v>
@@ -14365,7 +14215,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615136208639176</v>
+        <v>1.578598784001872</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.134997739849747</v>
@@ -14454,7 +14304,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.599471129426738</v>
+        <v>1.562052296943818</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.222212232966015</v>
@@ -14543,7 +14393,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.596931210252865</v>
+        <v>1.550116157352242</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.245144933653101</v>
@@ -14632,7 +14482,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587099558389878</v>
+        <v>1.533295513353946</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.112940094366824</v>
@@ -14721,7 +14571,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.565478355480737</v>
+        <v>1.512104917325347</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.149640011926768</v>
@@ -14810,7 +14660,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568127498853074</v>
+        <v>1.516545714108505</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.149770465518545</v>
@@ -14899,7 +14749,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567415939066046</v>
+        <v>1.520915375304436</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.149591015817983</v>
@@ -14988,7 +14838,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.561902736769118</v>
+        <v>1.510977592164301</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.136325819029873</v>
@@ -15077,7 +14927,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561301437714047</v>
+        <v>1.512282221906476</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.171719810845572</v>
@@ -15166,7 +15016,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.562056294760151</v>
+        <v>1.510164521120296</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.130330355268902</v>
@@ -15255,7 +15105,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.5706934418202</v>
+        <v>1.521902701161245</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.08569295696652</v>
@@ -15344,7 +15194,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.569238622681801</v>
+        <v>1.523862942115682</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.211172640715556</v>
@@ -15433,7 +15283,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580019118828357</v>
+        <v>1.532414701509546</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.203165999817817</v>
@@ -15522,7 +15372,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583110594250708</v>
+        <v>1.540478305772868</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.990164533066436</v>
@@ -15611,7 +15461,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570082669859153</v>
+        <v>1.52804900342957</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.245009155108465</v>
@@ -15700,7 +15550,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572970014501295</v>
+        <v>1.531958276352583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.040927373915181</v>
@@ -15789,7 +15639,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.576279301202114</v>
+        <v>1.542308447477442</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.026675861504116</v>
@@ -15878,7 +15728,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.576161059938421</v>
+        <v>1.540514288077814</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.219780164999403</v>
@@ -15967,7 +15817,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.577369552437397</v>
+        <v>1.537142805178322</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.201024153812661</v>
@@ -16056,7 +15906,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587036937833813</v>
+        <v>1.546690303393323</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.382054726454336</v>
@@ -16145,7 +15995,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.5762609211881</v>
+        <v>1.541572503793419</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.302567790053717</v>
@@ -16234,7 +16084,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579923389693598</v>
+        <v>1.538808226208176</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.836207993144842</v>
@@ -16323,7 +16173,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577927386249087</v>
+        <v>1.543514923147328</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.363941115209085</v>
@@ -16412,7 +16262,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572776021019776</v>
+        <v>1.538826682460887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.398150427620776</v>
@@ -16501,7 +16351,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573261168570678</v>
+        <v>1.536787356414623</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.211037408489462</v>
@@ -16590,7 +16440,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570151084323489</v>
+        <v>1.531662397735327</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.516367376258817</v>
@@ -16679,7 +16529,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.566042203723408</v>
+        <v>1.523933919921871</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.18807964147681</v>
@@ -16768,7 +16618,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567783648439748</v>
+        <v>1.525492836694131</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.280980512475705</v>
@@ -16857,7 +16707,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.571208760057947</v>
+        <v>1.526895851665244</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.863813390466107</v>
@@ -16946,7 +16796,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.584018065088894</v>
+        <v>1.539318144494414</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.964336119011439</v>
@@ -17035,7 +16885,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.577737906238204</v>
+        <v>1.537674688703777</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.25765286943636</v>
@@ -17124,7 +16974,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.569944341358546</v>
+        <v>1.525730970583113</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.937333771747544</v>
@@ -17213,7 +17063,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.573579438431902</v>
+        <v>1.53069234271788</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.006203182793028</v>
@@ -17302,7 +17152,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.576630920460036</v>
+        <v>1.539651736896471</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.134591156602733</v>
@@ -17391,7 +17241,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.580572827773297</v>
+        <v>1.549196977596947</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.161260087111235</v>
@@ -17480,7 +17330,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.59519257555112</v>
+        <v>1.563684802355027</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.845497995664476</v>
@@ -17569,7 +17419,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.582607422964517</v>
+        <v>1.554289145934764</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.921815661687159</v>
@@ -17658,7 +17508,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.575011596048567</v>
+        <v>1.544216121077654</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.778688523878918</v>
@@ -17747,7 +17597,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.586143501269077</v>
+        <v>1.553465778823229</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.90331199305582</v>
@@ -17836,7 +17686,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.582234062403057</v>
+        <v>1.554874907084098</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.992136752118261</v>
@@ -17925,7 +17775,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.57825231061874</v>
+        <v>1.558554623718659</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.152921860623298</v>
@@ -18014,7 +17864,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.586953369365419</v>
+        <v>1.564725314774971</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.187263259489391</v>
@@ -18103,7 +17953,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.581952541277502</v>
+        <v>1.562255571479249</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.990358516507239</v>
@@ -18192,7 +18042,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.585149903076942</v>
+        <v>1.55828004823604</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.913459386849762</v>
@@ -18281,7 +18131,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.580157564598483</v>
+        <v>1.555400848278343</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.923906093758417</v>
@@ -18370,7 +18220,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.591672707712058</v>
+        <v>1.559761083571006</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.353297096257906</v>
@@ -18459,7 +18309,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.608777165813431</v>
+        <v>1.575771054645653</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.790707577771767</v>
@@ -18548,7 +18398,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.603457542888943</v>
+        <v>1.571478439483284</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.21830304075255</v>
@@ -18637,7 +18487,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.596085932843215</v>
+        <v>1.561235357284227</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.033284466258362</v>
@@ -18726,7 +18576,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.582584910233691</v>
+        <v>1.544251429694118</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.978272034069993</v>
@@ -18815,7 +18665,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.572017273947443</v>
+        <v>1.529773025489289</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.688939646881054</v>
@@ -19101,7 +18951,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.569214340061331</v>
+        <v>1.533703871902337</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.854422779406425</v>
@@ -19190,7 +19040,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.571171980838318</v>
+        <v>1.534437901751376</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.991561789390133</v>
@@ -19279,7 +19129,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.57582434545998</v>
+        <v>1.536203782411773</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.878446609648283</v>
@@ -19368,7 +19218,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.58563212876073</v>
+        <v>1.547819894009025</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.108444852527047</v>
@@ -19457,7 +19307,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.579374958863428</v>
+        <v>1.549285588852845</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.053878459746973</v>
@@ -19546,7 +19396,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.58930764055827</v>
+        <v>1.556970589583755</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.106352880323685</v>
@@ -19635,7 +19485,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60556579118569</v>
+        <v>1.567066605078128</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.283425083458357</v>
@@ -19724,7 +19574,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.611088189477429</v>
+        <v>1.567654442993671</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.116605191734884</v>
@@ -19813,7 +19663,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601701045323283</v>
+        <v>1.555319487887003</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.349597070294912</v>
@@ -19902,7 +19752,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596855110383419</v>
+        <v>1.545204742299617</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.228704113487889</v>
@@ -19991,7 +19841,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.598286496756542</v>
+        <v>1.543026419850861</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.237540476942088</v>
@@ -20080,7 +19930,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.600168078903976</v>
+        <v>1.548863260039206</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.089573991117273</v>
@@ -20169,7 +20019,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60183870513442</v>
+        <v>1.54508387547118</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.032758332887547</v>
@@ -20258,7 +20108,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.586327135376013</v>
+        <v>1.535082325513098</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.173281043229251</v>
@@ -20347,7 +20197,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.577988220093992</v>
+        <v>1.525505259325806</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.21942596310552</v>
@@ -20436,7 +20286,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.564011884881638</v>
+        <v>1.497038841223917</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.052946011913869</v>
@@ -20525,7 +20375,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.553616276158726</v>
+        <v>1.490864490190428</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.062933320573124</v>
@@ -20614,7 +20464,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.563342401695871</v>
+        <v>1.495614432470348</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.027705194953049</v>
@@ -20703,7 +20553,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55364893384664</v>
+        <v>1.485298730309787</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.014944407671181</v>
@@ -20792,7 +20642,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.55907588091892</v>
+        <v>1.485121084823205</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.067857977933408</v>
@@ -20881,7 +20731,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548119128689107</v>
+        <v>1.477664850432142</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.07179886232745</v>
@@ -20970,7 +20820,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.537638150409927</v>
+        <v>1.470325606411624</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.067773050869801</v>
@@ -21059,7 +20909,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.536304771982387</v>
+        <v>1.473941082087319</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.007461474132374</v>
@@ -21148,7 +20998,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.531770982241295</v>
+        <v>1.472517862364875</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.013969721722778</v>
@@ -21237,7 +21087,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.530078746625946</v>
+        <v>1.47427757791813</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.065412333315279</v>
@@ -21326,7 +21176,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526535854868058</v>
+        <v>1.472941004633052</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.080143071773517</v>
@@ -21415,7 +21265,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.531119812240678</v>
+        <v>1.473295127266959</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.042502190853117</v>
@@ -21504,7 +21354,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.527674621319555</v>
+        <v>1.470415819737309</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.961518076710979</v>
@@ -21593,7 +21443,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527656476395934</v>
+        <v>1.467255898522511</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.16097766067185</v>
@@ -21682,7 +21532,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.546732994105873</v>
+        <v>1.483720318018038</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.111699049854007</v>
@@ -21771,7 +21621,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.539460830933551</v>
+        <v>1.486495627731842</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.95269340877269</v>
@@ -21860,7 +21710,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.532107112014265</v>
+        <v>1.477347640757619</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.95656220884506</v>
@@ -21949,7 +21799,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.527030337047767</v>
+        <v>1.472230621219188</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.671379887387058</v>
@@ -22038,7 +21888,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535170424873941</v>
+        <v>1.480245810283947</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.899240458895052</v>
@@ -22127,7 +21977,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.534671313178339</v>
+        <v>1.480392195783017</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.029941745220414</v>
@@ -22216,7 +22066,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.531689360651332</v>
+        <v>1.473837559913849</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.866290371593555</v>
@@ -22305,7 +22155,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.533916907092261</v>
+        <v>1.475237036543726</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.987299016385426</v>
@@ -22394,7 +22244,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530529709269712</v>
+        <v>1.471362990801999</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.858583496911416</v>
@@ -22483,7 +22333,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.544232316137109</v>
+        <v>1.481448402841016</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.060018838499106</v>
@@ -22572,7 +22422,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.536370670909088</v>
+        <v>1.472977927616872</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.678784774913313</v>
@@ -22661,7 +22511,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.536533774393565</v>
+        <v>1.475718924648992</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.848259173421142</v>
@@ -22750,7 +22600,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.529315563528591</v>
+        <v>1.470624349192318</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.975064490396776</v>
@@ -22839,7 +22689,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.532847738834085</v>
+        <v>1.469680212910806</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.835078672278136</v>
@@ -22928,7 +22778,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.530780073332745</v>
+        <v>1.470058639117198</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.81768941423389</v>
@@ -23017,7 +22867,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.525374639306405</v>
+        <v>1.466929471982738</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.791783296799132</v>
@@ -23106,7 +22956,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.532668557887519</v>
+        <v>1.480187519015057</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.748422341761458</v>
@@ -23195,7 +23045,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548854817529284</v>
+        <v>1.495130084517979</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.875366369669517</v>
@@ -23284,7 +23134,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543590702998661</v>
+        <v>1.495692729957323</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.316565537841688</v>
@@ -23373,7 +23223,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542499031996149</v>
+        <v>1.49573412476245</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.252194649930852</v>
@@ -23462,7 +23312,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.555655466779279</v>
+        <v>1.501141503466444</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.280845850166052</v>
@@ -23551,7 +23401,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.56738818149994</v>
+        <v>1.510485691035415</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.159656376340846</v>
@@ -23640,7 +23490,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.569305154621388</v>
+        <v>1.512729134573017</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.912569919800869</v>
@@ -23729,7 +23579,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573667320169194</v>
+        <v>1.513639681738476</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.125238794552996</v>
@@ -23818,7 +23668,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.5577946361849</v>
+        <v>1.499258675861251</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.418504939503278</v>
@@ -23907,7 +23757,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.552899430958381</v>
+        <v>1.498524863009337</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.438723500045698</v>
@@ -23996,7 +23846,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.549598345834651</v>
+        <v>1.498244854089703</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.985087423222585</v>
@@ -24085,7 +23935,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.563356336613989</v>
+        <v>1.512148413463283</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.471477521642272</v>
@@ -24174,7 +24024,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.551453351383127</v>
+        <v>1.511519156476479</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.225202157740074</v>
@@ -24263,7 +24113,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.558293927540153</v>
+        <v>1.513848316374697</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.152713772910344</v>
@@ -24352,7 +24202,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.56742348409904</v>
+        <v>1.519477668493882</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.45622277928085</v>
@@ -24441,7 +24291,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.559362098183054</v>
+        <v>1.509696083031962</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.922143534943509</v>
@@ -24530,7 +24380,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.555251825124055</v>
+        <v>1.505737522515604</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.352110381122545</v>
@@ -24619,7 +24469,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.555125543171774</v>
+        <v>1.504041175269229</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.23949188697869</v>
@@ -24708,7 +24558,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.556834659267808</v>
+        <v>1.505859007031314</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.125430852297807</v>
@@ -24797,7 +24647,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.539749091919113</v>
+        <v>1.489662677891048</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.05256181414381</v>
@@ -24886,7 +24736,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.518381443367953</v>
+        <v>1.47490861386565</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.241911726460964</v>
@@ -24975,7 +24825,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.511895559781051</v>
+        <v>1.466210687689875</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.070077910392534</v>
@@ -25064,7 +24914,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.501765730044403</v>
+        <v>1.456920992007551</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.675555449325659</v>
@@ -25350,7 +25200,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.65251476389961</v>
+        <v>1.605805759839922</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.417982095004426</v>
@@ -25439,7 +25289,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.641190513219047</v>
+        <v>1.598379308973613</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.460942204022873</v>
@@ -25528,7 +25378,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.638331397725627</v>
+        <v>1.598768981200528</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.325857179854697</v>
@@ -25617,7 +25467,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.64079573487445</v>
+        <v>1.598705795701441</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.348411077909367</v>
@@ -25706,7 +25556,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.639064895635533</v>
+        <v>1.598607802280531</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.368971598231683</v>
@@ -25795,7 +25645,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.639458555976084</v>
+        <v>1.598685481218203</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.462560714391459</v>
@@ -25884,7 +25734,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.636140624269302</v>
+        <v>1.589985648114168</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.431165061126104</v>
@@ -25973,7 +25823,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.628704919350123</v>
+        <v>1.57956823484021</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.456392157367691</v>
@@ -26062,7 +25912,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.626996008440921</v>
+        <v>1.576058188185493</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.221542284617753</v>
@@ -26151,7 +26001,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625318092472208</v>
+        <v>1.568240109389444</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.445055621333593</v>
@@ -26240,7 +26090,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630826423201885</v>
+        <v>1.567478457443892</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.471360756391829</v>
@@ -26329,7 +26179,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.618996539985281</v>
+        <v>1.562349466660488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.172555216063225</v>
@@ -26418,7 +26268,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.619692216096042</v>
+        <v>1.561327616480957</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.008201676964949</v>
@@ -26507,7 +26357,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627147609070565</v>
+        <v>1.574451494733654</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.126030111065076</v>
@@ -26596,7 +26446,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.626514342186626</v>
+        <v>1.57218616027432</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.208347576933416</v>
@@ -26685,7 +26535,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59815318360256</v>
+        <v>1.530204039556586</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.088460969631413</v>
@@ -26774,7 +26624,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604683678479775</v>
+        <v>1.540179627918744</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.098020545516976</v>
@@ -26863,7 +26713,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606921178288302</v>
+        <v>1.538766654615504</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.103051020013252</v>
@@ -26952,7 +26802,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.597484646961321</v>
+        <v>1.527025441844647</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.056479183645873</v>
@@ -27041,7 +26891,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.591489231659251</v>
+        <v>1.523151297252224</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.081458708707514</v>
@@ -27130,7 +26980,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.584548385042259</v>
+        <v>1.516923392597767</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.085448598511997</v>
@@ -27219,7 +27069,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576575487227668</v>
+        <v>1.516957799551432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.054064485231788</v>
@@ -27308,7 +27158,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581077922670002</v>
+        <v>1.524547870522369</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.061800165107262</v>
@@ -27397,7 +27247,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563371386566805</v>
+        <v>1.510906902970048</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.060135467652012</v>
@@ -27486,7 +27336,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564943496781907</v>
+        <v>1.517011159030802</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.113742703637326</v>
@@ -27575,7 +27425,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.558664564584008</v>
+        <v>1.513296262126636</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.128993932925948</v>
@@ -27664,7 +27514,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.563600890733895</v>
+        <v>1.516475291862579</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.121094293677381</v>
@@ -27753,7 +27603,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.552229697428906</v>
+        <v>1.50908387556035</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.054382963483252</v>
@@ -27842,7 +27692,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546102721423789</v>
+        <v>1.496621727455968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.143549048860267</v>
@@ -27931,7 +27781,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.565079066376226</v>
+        <v>1.514700084874223</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.134789654565039</v>
@@ -28020,7 +27870,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.561710842719195</v>
+        <v>1.523044774860926</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.025391627059522</v>
@@ -28109,7 +27959,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.552876318139604</v>
+        <v>1.510204448478121</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.288085771404007</v>
@@ -28198,7 +28048,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.550232238725154</v>
+        <v>1.507514657703775</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.110272195153876</v>
@@ -28287,7 +28137,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.5550457858909</v>
+        <v>1.515713618065216</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.979803236443804</v>
@@ -28376,7 +28226,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.553315244318666</v>
+        <v>1.51338395594676</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.123037044585835</v>
@@ -28465,7 +28315,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.55666902627479</v>
+        <v>1.51444687454211</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.282973251545343</v>
@@ -28554,7 +28404,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562305600201676</v>
+        <v>1.515480721199003</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.997002801516134</v>
@@ -28643,7 +28493,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560336715993967</v>
+        <v>1.512862407877795</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.004103124532235</v>
@@ -28732,7 +28582,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581843217310669</v>
+        <v>1.530537683338689</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.186127648740012</v>
@@ -28821,7 +28671,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568682885140206</v>
+        <v>1.515864564958471</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.360377018337261</v>
@@ -28910,7 +28760,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565327330894226</v>
+        <v>1.513383134172533</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.249723411747421</v>
@@ -28999,7 +28849,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.5648243254575</v>
+        <v>1.511837102659116</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.857422724039407</v>
@@ -29088,7 +28938,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.569779785460566</v>
+        <v>1.512865821265025</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.367854808445462</v>
@@ -29177,7 +29027,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562205256140534</v>
+        <v>1.513200711508812</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.519947924139711</v>
@@ -29266,7 +29116,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557046380573364</v>
+        <v>1.509313878292903</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.352427753293162</v>
@@ -29355,7 +29205,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.564875235491089</v>
+        <v>1.519818724367861</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.755164950371773</v>
@@ -29444,7 +29294,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.562588209381285</v>
+        <v>1.520500437474662</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.908663685936849</v>
@@ -29533,7 +29383,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.569051583165075</v>
+        <v>1.528092351580463</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.465792594376328</v>
@@ -29622,7 +29472,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.57507810115489</v>
+        <v>1.530976684547032</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.968074777399485</v>
@@ -29711,7 +29561,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.592856396925568</v>
+        <v>1.542423636977437</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.317735463093824</v>
@@ -29800,7 +29650,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.599063484110091</v>
+        <v>1.544449434358371</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.54252848034095</v>
@@ -29889,7 +29739,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609790634530579</v>
+        <v>1.557482759123427</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.782638408152355</v>
@@ -29978,7 +29828,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.619378764625034</v>
+        <v>1.56680059595554</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.613526228223395</v>
@@ -30067,7 +29917,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.601640727113291</v>
+        <v>1.55275144055707</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.031304908088391</v>
@@ -30156,7 +30006,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.594161412562503</v>
+        <v>1.55073078464765</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.334073543446094</v>
@@ -30245,7 +30095,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.589059500318238</v>
+        <v>1.545898695918063</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.163202239680289</v>
@@ -30334,7 +30184,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.594576283633673</v>
+        <v>1.551068541186419</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.402137573553303</v>
@@ -30423,7 +30273,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.587641602366947</v>
+        <v>1.548550766561096</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.958509707921216</v>
@@ -30512,7 +30362,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.60669662509452</v>
+        <v>1.564748688324853</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.530733111191832</v>
@@ -30601,7 +30451,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.608224232876267</v>
+        <v>1.561591266268146</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.379346863075745</v>
@@ -30690,7 +30540,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.602232285933709</v>
+        <v>1.55268049506349</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.898851401047961</v>
@@ -30779,7 +30629,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.601765577677922</v>
+        <v>1.553274287794229</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.549260627900684</v>
@@ -30868,7 +30718,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601838965222038</v>
+        <v>1.547946719878334</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.599436929452447</v>
@@ -30957,7 +30807,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59680868801177</v>
+        <v>1.545546939982475</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.277382448692976</v>
@@ -31046,7 +30896,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.582007582865153</v>
+        <v>1.530265341602798</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.470247279893985</v>
@@ -31135,7 +30985,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.553398352569218</v>
+        <v>1.512444572165073</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.612634873679331</v>
@@ -31224,7 +31074,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.542066621951649</v>
+        <v>1.499477978882233</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.620269363001375</v>
@@ -31313,7 +31163,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.525143615583798</v>
+        <v>1.479374588893025</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.883395166971343</v>
@@ -31599,7 +31449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.57472236092112</v>
+        <v>1.563392072623604</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.410122786512001</v>
@@ -31688,7 +31538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527246787155556</v>
+        <v>1.516819235185759</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.147505665435329</v>
@@ -31777,7 +31627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.496337130599875</v>
+        <v>1.503180716024196</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.18914733899136</v>
@@ -31866,7 +31716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494028060498172</v>
+        <v>1.504129232584313</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.162240128507629</v>
@@ -31955,7 +31805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.509878358080164</v>
+        <v>1.525619564552166</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.204575058184909</v>
@@ -32044,7 +31894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.511291531970496</v>
+        <v>1.522996665778643</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.166937881344716</v>
@@ -32133,7 +31983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520462381582625</v>
+        <v>1.530780796984353</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.178043766697921</v>
@@ -32222,7 +32072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.514806332552602</v>
+        <v>1.525222376144805</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.16629601796786</v>
@@ -32311,7 +32161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512865859172768</v>
+        <v>1.521603628969401</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.17788317095756</v>
@@ -32400,7 +32250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.512175684332717</v>
+        <v>1.51996418064621</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.156256750856499</v>
@@ -32489,7 +32339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.511927859189941</v>
+        <v>1.518486247410254</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.183773096183797</v>
@@ -32578,7 +32428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510615046667084</v>
+        <v>1.514740638146777</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.184066139300333</v>
@@ -32667,7 +32517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.508548212197975</v>
+        <v>1.510840409847466</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.197726045553467</v>
@@ -32756,7 +32606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.489123287200468</v>
+        <v>1.496469310240029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.168996096005278</v>
@@ -32845,7 +32695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.488695236328732</v>
+        <v>1.489824358837425</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.147990423129647</v>
@@ -32934,7 +32784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481127772684973</v>
+        <v>1.477984583481383</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.204380218249021</v>
@@ -33023,7 +32873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.532692655986004</v>
+        <v>1.52398821074718</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.233573192037613</v>
@@ -33112,7 +32962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.570067766978025</v>
+        <v>1.549724886203901</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.446935655086128</v>
@@ -33201,7 +33051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569295699839675</v>
+        <v>1.544661958253611</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.463661837178793</v>
@@ -33290,7 +33140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.552272451001131</v>
+        <v>1.522573260421248</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.292833550631175</v>
@@ -33379,7 +33229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.542052403305267</v>
+        <v>1.512051925390087</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.328521510220504</v>
@@ -33468,7 +33318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.531872558186231</v>
+        <v>1.503153133175639</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.229373672937786</v>
@@ -33557,7 +33407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.523564348688225</v>
+        <v>1.493940445219792</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.281715391972942</v>
@@ -33646,7 +33496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.522486742101474</v>
+        <v>1.494045788253477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.322538588788073</v>
@@ -33735,7 +33585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.528305836847989</v>
+        <v>1.498788739011731</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.293794915688861</v>
@@ -33824,7 +33674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523393900032978</v>
+        <v>1.498394971009009</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.352751372107427</v>
@@ -33913,7 +33763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.520301949110955</v>
+        <v>1.497444355728073</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.416519661526487</v>
@@ -34002,7 +33852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.527221806712184</v>
+        <v>1.501415958628158</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.163931677436171</v>
@@ -34091,7 +33941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.532550216573517</v>
+        <v>1.500497770781354</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.386730800324812</v>
@@ -34180,7 +34030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.539883619647405</v>
+        <v>1.511273223919211</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.36465075253666</v>
@@ -34269,7 +34119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.542681259082991</v>
+        <v>1.516369611333507</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.779617024900434</v>
@@ -34358,7 +34208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534844720415978</v>
+        <v>1.501039009963105</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.930361998568455</v>
@@ -34447,7 +34297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546196624367318</v>
+        <v>1.50807907427126</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.823189015888278</v>
@@ -34536,7 +34386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.546889309451688</v>
+        <v>1.509084853975573</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.646652615285519</v>
@@ -34625,7 +34475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541863294505839</v>
+        <v>1.508323284402571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.051234864038944</v>
@@ -34714,7 +34564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.5446450042802</v>
+        <v>1.510550605674222</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.745595928571628</v>
@@ -34803,7 +34653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.553809790184913</v>
+        <v>1.515786480908843</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.436758209794303</v>
@@ -34892,7 +34742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556114977750714</v>
+        <v>1.526701830867647</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.271752333301675</v>
@@ -34981,7 +34831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564227964830898</v>
+        <v>1.530052141391824</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.050302239991825</v>
@@ -35070,7 +34920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.558356318854801</v>
+        <v>1.526229821706573</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.9955181520198</v>
@@ -35159,7 +35009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.546849550285915</v>
+        <v>1.511655547044487</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.2003698445197</v>
@@ -35248,7 +35098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.549515615249853</v>
+        <v>1.510418349889648</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.920193227377342</v>
@@ -35337,7 +35187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.544373229495447</v>
+        <v>1.504526136693281</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.043760957853707</v>
@@ -35426,7 +35276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.538149123950572</v>
+        <v>1.500702037638141</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.054180191289641</v>
@@ -35515,7 +35365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.545184737259269</v>
+        <v>1.508504826215041</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.460566670427589</v>
@@ -35604,7 +35454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55617732109423</v>
+        <v>1.522997097252567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.140581288189524</v>
@@ -35693,7 +35543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.550428031268365</v>
+        <v>1.523540477206015</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.028337055005257</v>
@@ -35782,7 +35632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.537500413679491</v>
+        <v>1.508344385563949</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.063597407457043</v>
@@ -35871,7 +35721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.543703500068861</v>
+        <v>1.515480060659981</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.97226981886903</v>
@@ -35960,7 +35810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.552771629727346</v>
+        <v>1.519727282330829</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.300947263231926</v>
@@ -36049,7 +35899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.556709544602917</v>
+        <v>1.52347090266407</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.028299975164211</v>
@@ -36138,7 +35988,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552075346893149</v>
+        <v>1.524613183450438</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.596606701744684</v>
@@ -36227,7 +36077,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561718134239919</v>
+        <v>1.52393061171965</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.101862952208212</v>
@@ -36316,7 +36166,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.555332008828949</v>
+        <v>1.518422336933569</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.197010529378608</v>
@@ -36405,7 +36255,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.55370916692616</v>
+        <v>1.509878598270373</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.206825937312641</v>
@@ -36494,7 +36344,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.56641649550936</v>
+        <v>1.527753947714589</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.33348385769469</v>
@@ -36583,7 +36433,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.575446021642283</v>
+        <v>1.538237720996494</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.31363172694271</v>
@@ -36672,7 +36522,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.582250409775986</v>
+        <v>1.546855071760658</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.804652662911759</v>
@@ -36761,7 +36611,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594729821221358</v>
+        <v>1.556857463022151</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.943193068018777</v>
@@ -36850,7 +36700,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.599495831287041</v>
+        <v>1.553514302658407</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.253707787811206</v>
@@ -36939,7 +36789,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.592833806538146</v>
+        <v>1.547120038959019</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.598246501224968</v>
@@ -37028,7 +36878,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.603537236069202</v>
+        <v>1.557098970534605</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.289545911663771</v>
@@ -37117,7 +36967,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.628732210774458</v>
+        <v>1.579209734079353</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.205912032618126</v>
@@ -37206,7 +37056,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.626770695654746</v>
+        <v>1.579976964354394</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.332328017621632</v>
@@ -37295,7 +37145,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.622475210481401</v>
+        <v>1.578147614626441</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.127815393321101</v>
@@ -37384,7 +37234,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.605950141328522</v>
+        <v>1.560045757853572</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.143126310778869</v>
@@ -37473,7 +37323,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.611983161141397</v>
+        <v>1.563684474368886</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.115653618824884</v>
@@ -37562,7 +37412,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.607162534863939</v>
+        <v>1.564033489841351</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.943390012537378</v>
@@ -37848,7 +37698,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.30503674563501</v>
+        <v>1.315414811633262</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.077155116475599</v>
@@ -37937,7 +37787,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.335884859392306</v>
+        <v>1.343331077661406</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.054945342097699</v>
@@ -38026,7 +37876,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.330569287218702</v>
+        <v>1.336696178994407</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.982316052659963</v>
@@ -38115,7 +37965,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.342239685116921</v>
+        <v>1.346195611377673</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.019539465930894</v>
@@ -38204,7 +38054,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.342837393321038</v>
+        <v>1.350578422727873</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.046076236523718</v>
@@ -38293,7 +38143,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.353078962082226</v>
+        <v>1.361847234987539</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.134302066976939</v>
@@ -38382,7 +38232,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.405286904920631</v>
+        <v>1.407573441701064</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.063013480476267</v>
@@ -38471,7 +38321,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.403415134301529</v>
+        <v>1.408054166884629</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.031731843933979</v>
@@ -38560,7 +38410,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.361544535061404</v>
+        <v>1.362711306593066</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.08901570407807</v>
@@ -38649,7 +38499,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.359571282557331</v>
+        <v>1.35925939740761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.101250301405312</v>
@@ -38738,7 +38588,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.360153538769597</v>
+        <v>1.35649608663386</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.085108400472534</v>
@@ -38827,7 +38677,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.400396201057585</v>
+        <v>1.393554416471339</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.058439812354888</v>
@@ -38916,7 +38766,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.404882731096577</v>
+        <v>1.393284592288508</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.059327432281234</v>
@@ -39005,7 +38855,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.353204397214</v>
+        <v>1.350933937099499</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.060070191327529</v>
@@ -39094,7 +38944,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.349801575575756</v>
+        <v>1.343379166210725</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.065998936131058</v>
@@ -39183,7 +39033,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.338707431928547</v>
+        <v>1.321116822318879</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.092214161161301</v>
@@ -39272,7 +39122,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321222894649613</v>
+        <v>1.310010003778664</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.008968778042098</v>
@@ -39361,7 +39211,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.352722503620815</v>
+        <v>1.338478934073178</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.033683196588959</v>
@@ -39450,7 +39300,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.348921144688483</v>
+        <v>1.331593662978909</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.111290772654252</v>
@@ -39539,7 +39389,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.387138022965264</v>
+        <v>1.364429423357261</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.098485943363463</v>
@@ -39628,7 +39478,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.380363965456309</v>
+        <v>1.352983198027841</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.024331561311613</v>
@@ -39717,7 +39567,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.376631577068284</v>
+        <v>1.351831386314506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.066044025998353</v>
@@ -39806,7 +39656,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.342721921098285</v>
+        <v>1.3238543813616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.103887416903593</v>
@@ -39895,7 +39745,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.376670685714589</v>
+        <v>1.360329506879553</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.070494440391356</v>
@@ -39984,7 +39834,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.391097806924796</v>
+        <v>1.349674489994325</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.707995207821734</v>
@@ -40073,7 +39923,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.34248018677198</v>
+        <v>1.322781567537376</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.709289147685892</v>
@@ -40162,7 +40012,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.321301496639676</v>
+        <v>1.304357458363253</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.720949034076631</v>
@@ -40251,7 +40101,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.336242839702192</v>
+        <v>1.319501432722925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.590690195437646</v>
@@ -40340,7 +40190,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.358691274304374</v>
+        <v>1.341299668706322</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.726908631409761</v>
@@ -40429,7 +40279,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.369308706811251</v>
+        <v>1.352554422645964</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.719834185296141</v>
@@ -40518,7 +40368,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.395621173055297</v>
+        <v>1.383446853560784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.692007861712934</v>
@@ -40607,7 +40457,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.356900672715487</v>
+        <v>1.345011351785111</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.724649816230474</v>
@@ -40696,7 +40546,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.354497663784878</v>
+        <v>1.343892086100363</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.740869285918813</v>
@@ -40785,7 +40635,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.35519391970865</v>
+        <v>1.344391135495693</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.71041767606386</v>
@@ -40874,7 +40724,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.328178935871414</v>
+        <v>1.316426911431885</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.737195902975114</v>
@@ -40963,7 +40813,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.326428527622273</v>
+        <v>1.316963358692225</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.740353765553212</v>
@@ -41052,7 +40902,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.347300467592033</v>
+        <v>1.332548276452408</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.717820723056913</v>
@@ -41141,7 +40991,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.355165014153995</v>
+        <v>1.338754374100369</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.733615419029096</v>
@@ -41230,7 +41080,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.36145832748052</v>
+        <v>1.343923593828955</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.718597697810906</v>
@@ -41319,7 +41169,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.396495891744739</v>
+        <v>1.387072460984542</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.054015315171704</v>
@@ -41408,7 +41258,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.400952774331266</v>
+        <v>1.391161131223935</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.992395256800164</v>
@@ -41497,7 +41347,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.38836402277259</v>
+        <v>1.378143060373497</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.972201738073016</v>
@@ -41586,7 +41436,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.390379634689966</v>
+        <v>1.380221948997724</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.065538910637587</v>
@@ -41675,7 +41525,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.379983679271216</v>
+        <v>1.371279988988579</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.037064762884544</v>
@@ -41764,7 +41614,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.373979755647851</v>
+        <v>1.364314595171262</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.091897704489633</v>
@@ -41853,7 +41703,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.372762704022487</v>
+        <v>1.36319905338749</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.136365967577542</v>
@@ -41942,7 +41792,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.415903301040889</v>
+        <v>1.40295564618774</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.109251994820161</v>
@@ -42031,7 +41881,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.379242935685097</v>
+        <v>1.368603652734501</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.017985127471213</v>
@@ -42120,7 +41970,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.382173100831989</v>
+        <v>1.373084713715547</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.057457323239043</v>
@@ -42209,7 +42059,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.436401277636489</v>
+        <v>1.416633939289684</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.922020196383749</v>
@@ -42298,7 +42148,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.438152764841973</v>
+        <v>1.416392929222679</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.027007215241694</v>
@@ -42387,7 +42237,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.411265176195928</v>
+        <v>1.393802800933074</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.000601191898798</v>
@@ -42476,7 +42326,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.41900154934556</v>
+        <v>1.40022777304891</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.051836048709703</v>
@@ -42565,7 +42415,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.413390995662564</v>
+        <v>1.393651183329515</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.046421300943163</v>
@@ -42654,7 +42504,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.377311878276948</v>
+        <v>1.359783314996579</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.105053482686957</v>
@@ -42743,7 +42593,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.377473931300606</v>
+        <v>1.357178374529595</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.110286218441815</v>
@@ -42832,7 +42682,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.42209563863762</v>
+        <v>1.402728856432583</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.042054912734383</v>
@@ -42921,7 +42771,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.375997001527632</v>
+        <v>1.367010689576433</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.051242349327905</v>
@@ -43010,7 +42860,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.376605297371618</v>
+        <v>1.365917418421437</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.073101371402441</v>
@@ -43099,7 +42949,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.379362597757071</v>
+        <v>1.370015939246857</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.114883586249258</v>
@@ -43188,7 +43038,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.383213507336431</v>
+        <v>1.373808829903</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.995095233007367</v>
@@ -43277,7 +43127,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.388057206448657</v>
+        <v>1.379824299536712</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.130251689631898</v>
@@ -43366,7 +43216,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.388723071683463</v>
+        <v>1.38133863412622</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.067318841598685</v>
@@ -43455,7 +43305,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.382281914199739</v>
+        <v>1.376740293686881</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.035690384053472</v>
@@ -43544,7 +43394,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.375776549581971</v>
+        <v>1.374437730185703</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.034929419315151</v>
@@ -43633,7 +43483,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.383517570980062</v>
+        <v>1.37735002772386</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.950848027713015</v>
@@ -43722,7 +43572,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.3631503302333</v>
+        <v>1.366600960351459</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.028640560657204</v>
@@ -43811,7 +43661,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.358792194289184</v>
+        <v>1.363736138371921</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.985215196838579</v>
